--- a/input/disaster_data/housing damages sidr.xlsx
+++ b/input/disaster_data/housing damages sidr.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Dropbox\PhD thesis\chapitre_2\PhD-Chapter-2\input\disaster_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200680F8-ED19-4FEA-99D6-48D623CE3BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35306A62-6398-423F-871B-DE3942083E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F13E456-37DE-4CDC-BD39-2FDC878B176F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{5F13E456-37DE-4CDC-BD39-2FDC878B176F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Housing damages" sheetId="1" r:id="rId1"/>
-    <sheet name="Total damages" sheetId="3" r:id="rId2"/>
-    <sheet name="source" sheetId="2" r:id="rId3"/>
+    <sheet name="Sidr" sheetId="1" r:id="rId1"/>
+    <sheet name="Sidr_housing_dmg" sheetId="3" r:id="rId2"/>
+    <sheet name="Roanu" sheetId="4" r:id="rId3"/>
+    <sheet name="Komen" sheetId="5" r:id="rId4"/>
+    <sheet name="source" sheetId="2" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
   <si>
     <t>Government of Bangladesh Report (2008), “Cyclone Sidr in Bangladesh: Damage, Loss and Needs Assessment for Disaster Recovery and Reconstruction.https://reliefweb.int/sites/reliefweb.int/files/resources/F2FDFF067EF49C8DC12574DC00455142-Full_Report.pdf</t>
   </si>
@@ -198,12 +201,6 @@
   </si>
   <si>
     <t>ID_adm</t>
-  </si>
-  <si>
-    <t>Source 1</t>
-  </si>
-  <si>
-    <t>Source 2</t>
   </si>
   <si>
     <t>No. of missing people</t>
@@ -278,6 +275,71 @@
   </si>
   <si>
     <t>No. of Affected Upazila</t>
+  </si>
+  <si>
+    <t>Causality</t>
+  </si>
+  <si>
+    <t>No. of
+Affected
+Upazilas</t>
+  </si>
+  <si>
+    <t>No. of
+Affected
+Unions</t>
+  </si>
+  <si>
+    <t>affected
+area
+(km2)</t>
+  </si>
+  <si>
+    <t>Fully affected HH</t>
+  </si>
+  <si>
+    <t>Partially affected HH</t>
+  </si>
+  <si>
+    <t>Fully affected people</t>
+  </si>
+  <si>
+    <t>Partially affected people</t>
+  </si>
+  <si>
+    <t>Fully affected shelter</t>
+  </si>
+  <si>
+    <t>Partially affected shelter</t>
+  </si>
+  <si>
+    <t>Source Roanu</t>
+  </si>
+  <si>
+    <t>Ministry of Disaster Management and Relief (MDMR); Link: https://www.academia.edu/36657774/Loss_and_Damage_Roanu_Bangladesh_Coast_pdf</t>
+  </si>
+  <si>
+    <t>Source Sidr 1</t>
+  </si>
+  <si>
+    <t>Source Sidr 2</t>
+  </si>
+  <si>
+    <t>Bandarban</t>
+  </si>
+  <si>
+    <t>Affected
+households</t>
+  </si>
+  <si>
+    <t>Affected people</t>
+  </si>
+  <si>
+    <t>Fully damaged</t>
+  </si>
+  <si>
+    <t>Partially damaged
+houses</t>
   </si>
 </sst>
 </file>
@@ -374,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -415,6 +477,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1673,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75708BA2-5462-49B0-ABA5-7FC9147C4ABF}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1693,7 +1773,7 @@
         <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>33</v>
@@ -2997,7 +3077,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3008,7 +3088,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="48">
       <c r="A1" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>41</v>
@@ -3020,61 +3100,61 @@
         <v>33</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="12" t="s">
+      <c r="S1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -3082,11 +3162,11 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="str">
-        <f>VLOOKUP(A2,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A2,Sidr!A:C,2,FALSE)</f>
         <v>Barisal</v>
       </c>
       <c r="C2" s="10">
-        <f>VLOOKUP(A2,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A2,Sidr!A:C,3,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D2" s="5">
@@ -3155,11 +3235,11 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="str">
-        <f>VLOOKUP(A3,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A3,Sidr!A:C,2,FALSE)</f>
         <v>Bhola</v>
       </c>
       <c r="C3" s="10">
-        <f>VLOOKUP(A3,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A3,Sidr!A:C,3,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D3" s="5">
@@ -3225,7 +3305,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>42</v>
@@ -3299,11 +3379,11 @@
         <v>6</v>
       </c>
       <c r="B5" s="10" t="str">
-        <f>VLOOKUP(A5,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A5,Sidr!A:C,2,FALSE)</f>
         <v>Jhalakati</v>
       </c>
       <c r="C5" s="10">
-        <f>VLOOKUP(A5,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A5,Sidr!A:C,3,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D5" s="5">
@@ -3372,11 +3452,11 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="str">
-        <f>VLOOKUP(A6,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A6,Sidr!A:C,2,FALSE)</f>
         <v>Patuakhali</v>
       </c>
       <c r="C6" s="10">
-        <f>VLOOKUP(A6,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A6,Sidr!A:C,3,FALSE)</f>
         <v>15</v>
       </c>
       <c r="D6" s="5">
@@ -3445,11 +3525,11 @@
         <v>10</v>
       </c>
       <c r="B7" s="10" t="str">
-        <f>VLOOKUP(A7,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A7,Sidr!A:C,2,FALSE)</f>
         <v>Pirojpur</v>
       </c>
       <c r="C7" s="10">
-        <f>VLOOKUP(A7,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A7,Sidr!A:C,3,FALSE)</f>
         <v>16</v>
       </c>
       <c r="D7" s="5">
@@ -3518,11 +3598,11 @@
         <v>13</v>
       </c>
       <c r="B8" s="10" t="str">
-        <f>VLOOKUP(A8,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A8,Sidr!A:C,2,FALSE)</f>
         <v>Chandpur</v>
       </c>
       <c r="C8" s="10">
-        <f>VLOOKUP(A8,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A8,Sidr!A:C,3,FALSE)</f>
         <v>29</v>
       </c>
       <c r="D8" s="5">
@@ -3591,11 +3671,11 @@
         <v>14</v>
       </c>
       <c r="B9" s="10" t="str">
-        <f>VLOOKUP(A9,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A9,Sidr!A:C,2,FALSE)</f>
         <v>Chittagong</v>
       </c>
       <c r="C9" s="10">
-        <f>VLOOKUP(A9,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A9,Sidr!A:C,3,FALSE)</f>
         <v>210</v>
       </c>
       <c r="D9" s="5">
@@ -3664,11 +3744,11 @@
         <v>15</v>
       </c>
       <c r="B10" s="10" t="str">
-        <f>VLOOKUP(A10,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A10,Sidr!A:C,2,FALSE)</f>
         <v>Comilla</v>
       </c>
       <c r="C10" s="10">
-        <f>VLOOKUP(A10,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A10,Sidr!A:C,3,FALSE)</f>
         <v>211</v>
       </c>
       <c r="D10" s="5">
@@ -3737,11 +3817,11 @@
         <v>30</v>
       </c>
       <c r="B11" s="10" t="str">
-        <f>VLOOKUP(A11,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A11,Sidr!A:C,2,FALSE)</f>
         <v>Cox's Bazar</v>
       </c>
       <c r="C11" s="10">
-        <f>VLOOKUP(A11,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A11,Sidr!A:C,3,FALSE)</f>
         <v>212</v>
       </c>
       <c r="D11" s="5">
@@ -3810,11 +3890,11 @@
         <v>18</v>
       </c>
       <c r="B12" s="10" t="str">
-        <f>VLOOKUP(A12,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A12,Sidr!A:C,2,FALSE)</f>
         <v>Feni</v>
       </c>
       <c r="C12" s="10">
-        <f>VLOOKUP(A12,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A12,Sidr!A:C,3,FALSE)</f>
         <v>213</v>
       </c>
       <c r="D12" s="5">
@@ -3883,11 +3963,11 @@
         <v>21</v>
       </c>
       <c r="B13" s="10" t="str">
-        <f>VLOOKUP(A13,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A13,Sidr!A:C,2,FALSE)</f>
         <v>Lakshmipur</v>
       </c>
       <c r="C13" s="10">
-        <f>VLOOKUP(A13,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A13,Sidr!A:C,3,FALSE)</f>
         <v>215</v>
       </c>
       <c r="D13" s="5">
@@ -3956,11 +4036,11 @@
         <v>28</v>
       </c>
       <c r="B14" s="10" t="str">
-        <f>VLOOKUP(A14,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A14,Sidr!A:C,2,FALSE)</f>
         <v>Noakhali</v>
       </c>
       <c r="C14" s="10">
-        <f>VLOOKUP(A14,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A14,Sidr!A:C,3,FALSE)</f>
         <v>216</v>
       </c>
       <c r="D14" s="5">
@@ -4029,11 +4109,11 @@
         <v>16</v>
       </c>
       <c r="B15" s="10" t="str">
-        <f>VLOOKUP(A15,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A15,Sidr!A:C,2,FALSE)</f>
         <v>Dhaka</v>
       </c>
       <c r="C15" s="10">
-        <f>VLOOKUP(A15,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A15,Sidr!A:C,3,FALSE)</f>
         <v>318</v>
       </c>
       <c r="D15" s="5">
@@ -4102,11 +4182,11 @@
         <v>17</v>
       </c>
       <c r="B16" s="10" t="str">
-        <f>VLOOKUP(A16,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A16,Sidr!A:C,2,FALSE)</f>
         <v>Faridpur</v>
       </c>
       <c r="C16" s="10">
-        <f>VLOOKUP(A16,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A16,Sidr!A:C,3,FALSE)</f>
         <v>319</v>
       </c>
       <c r="D16" s="5">
@@ -4175,11 +4255,11 @@
         <v>5</v>
       </c>
       <c r="B17" s="10" t="str">
-        <f>VLOOKUP(A17,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A17,Sidr!A:C,2,FALSE)</f>
         <v>Gopalgonj</v>
       </c>
       <c r="C17" s="10">
-        <f>VLOOKUP(A17,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A17,Sidr!A:C,3,FALSE)</f>
         <v>321</v>
       </c>
       <c r="D17" s="5">
@@ -4248,11 +4328,11 @@
         <v>20</v>
       </c>
       <c r="B18" s="10" t="str">
-        <f>VLOOKUP(A18,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A18,Sidr!A:C,2,FALSE)</f>
         <v>Kishoreganj</v>
       </c>
       <c r="C18" s="10">
-        <f>VLOOKUP(A18,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A18,Sidr!A:C,3,FALSE)</f>
         <v>323</v>
       </c>
       <c r="D18" s="5">
@@ -4321,11 +4401,11 @@
         <v>8</v>
       </c>
       <c r="B19" s="10" t="str">
-        <f>VLOOKUP(A19,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A19,Sidr!A:C,2,FALSE)</f>
         <v>Madaripur</v>
       </c>
       <c r="C19" s="10">
-        <f>VLOOKUP(A19,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A19,Sidr!A:C,3,FALSE)</f>
         <v>324</v>
       </c>
       <c r="D19" s="5">
@@ -4394,11 +4474,11 @@
         <v>22</v>
       </c>
       <c r="B20" s="10" t="str">
-        <f>VLOOKUP(A20,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A20,Sidr!A:C,2,FALSE)</f>
         <v>Manikgonj</v>
       </c>
       <c r="C20" s="10">
-        <f>VLOOKUP(A20,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A20,Sidr!A:C,3,FALSE)</f>
         <v>325</v>
       </c>
       <c r="D20" s="5">
@@ -4467,11 +4547,11 @@
         <v>24</v>
       </c>
       <c r="B21" s="10" t="str">
-        <f>VLOOKUP(A21,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A21,Sidr!A:C,2,FALSE)</f>
         <v>Munshigonj</v>
       </c>
       <c r="C21" s="10">
-        <f>VLOOKUP(A21,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A21,Sidr!A:C,3,FALSE)</f>
         <v>326</v>
       </c>
       <c r="D21" s="5">
@@ -4540,11 +4620,11 @@
         <v>26</v>
       </c>
       <c r="B22" s="10" t="str">
-        <f>VLOOKUP(A22,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A22,Sidr!A:C,2,FALSE)</f>
         <v>Naray Angonj</v>
       </c>
       <c r="C22" s="10">
-        <f>VLOOKUP(A22,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A22,Sidr!A:C,3,FALSE)</f>
         <v>327</v>
       </c>
       <c r="D22" s="5">
@@ -4613,11 +4693,11 @@
         <v>27</v>
       </c>
       <c r="B23" s="10" t="str">
-        <f>VLOOKUP(A23,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A23,Sidr!A:C,2,FALSE)</f>
         <v>Narshingdi</v>
       </c>
       <c r="C23" s="10">
-        <f>VLOOKUP(A23,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A23,Sidr!A:C,3,FALSE)</f>
         <v>328</v>
       </c>
       <c r="D23" s="5">
@@ -4686,11 +4766,11 @@
         <v>29</v>
       </c>
       <c r="B24" s="10" t="str">
-        <f>VLOOKUP(A24,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A24,Sidr!A:C,2,FALSE)</f>
         <v>Rajbari</v>
       </c>
       <c r="C24" s="10">
-        <f>VLOOKUP(A24,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A24,Sidr!A:C,3,FALSE)</f>
         <v>331</v>
       </c>
       <c r="D24" s="5">
@@ -4759,11 +4839,11 @@
         <v>12</v>
       </c>
       <c r="B25" s="10" t="str">
-        <f>VLOOKUP(A25,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A25,Sidr!A:C,2,FALSE)</f>
         <v>Shariatpur</v>
       </c>
       <c r="C25" s="10">
-        <f>VLOOKUP(A25,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A25,Sidr!A:C,3,FALSE)</f>
         <v>332</v>
       </c>
       <c r="D25" s="5">
@@ -4832,11 +4912,11 @@
         <v>1</v>
       </c>
       <c r="B26" s="10" t="str">
-        <f>VLOOKUP(A26,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A26,Sidr!A:C,2,FALSE)</f>
         <v>Bagerhat</v>
       </c>
       <c r="C26" s="10">
-        <f>VLOOKUP(A26,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A26,Sidr!A:C,3,FALSE)</f>
         <v>435</v>
       </c>
       <c r="D26" s="5">
@@ -4905,11 +4985,11 @@
         <v>19</v>
       </c>
       <c r="B27" s="10" t="str">
-        <f>VLOOKUP(A27,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A27,Sidr!A:C,2,FALSE)</f>
         <v>Jessore</v>
       </c>
       <c r="C27" s="10">
-        <f>VLOOKUP(A27,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A27,Sidr!A:C,3,FALSE)</f>
         <v>437</v>
       </c>
       <c r="D27" s="5">
@@ -4978,11 +5058,11 @@
         <v>7</v>
       </c>
       <c r="B28" s="10" t="str">
-        <f>VLOOKUP(A28,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A28,Sidr!A:C,2,FALSE)</f>
         <v>Khulna</v>
       </c>
       <c r="C28" s="10">
-        <f>VLOOKUP(A28,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A28,Sidr!A:C,3,FALSE)</f>
         <v>439</v>
       </c>
       <c r="D28" s="5">
@@ -5051,11 +5131,11 @@
         <v>25</v>
       </c>
       <c r="B29" s="10" t="str">
-        <f>VLOOKUP(A29,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A29,Sidr!A:C,2,FALSE)</f>
         <v>Narail</v>
       </c>
       <c r="C29" s="10">
-        <f>VLOOKUP(A29,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A29,Sidr!A:C,3,FALSE)</f>
         <v>443</v>
       </c>
       <c r="D29" s="5">
@@ -5124,11 +5204,11 @@
         <v>11</v>
       </c>
       <c r="B30" s="10" t="str">
-        <f>VLOOKUP(A30,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A30,Sidr!A:C,2,FALSE)</f>
         <v>Shatkhira</v>
       </c>
       <c r="C30" s="10">
-        <f>VLOOKUP(A30,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A30,Sidr!A:C,3,FALSE)</f>
         <v>445</v>
       </c>
       <c r="D30" s="5">
@@ -5197,11 +5277,11 @@
         <v>23</v>
       </c>
       <c r="B31" s="10" t="str">
-        <f>VLOOKUP(A31,'Housing damages'!A:C,2,FALSE)</f>
+        <f>VLOOKUP(A31,Sidr!A:C,2,FALSE)</f>
         <v>Moulvibazar</v>
       </c>
       <c r="C31" s="10">
-        <f>VLOOKUP(A31,'Housing damages'!A:C,3,FALSE)</f>
+        <f>VLOOKUP(A31,Sidr!A:C,3,FALSE)</f>
         <v>763</v>
       </c>
       <c r="D31" s="5">
@@ -5275,11 +5355,591 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F4B6D-1853-4BA4-B23C-510566FF409F}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7617B3E-1E73-42CB-A895-5346D2DE721E}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="43.2">
+      <c r="A1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>VLOOKUP(A2,Sidr!A:C,2,FALSE)</f>
+        <v>Chittagong</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>163</v>
+      </c>
+      <c r="E2">
+        <v>1636</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>115908</v>
+      </c>
+      <c r="J2">
+        <v>463632</v>
+      </c>
+      <c r="K2">
+        <v>20765</v>
+      </c>
+      <c r="L2">
+        <v>29655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f>VLOOKUP(A3,Sidr!A:C,2,FALSE)</f>
+        <v>Cox's Bazar</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>549</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>55625</v>
+      </c>
+      <c r="H3">
+        <v>24489</v>
+      </c>
+      <c r="I3">
+        <v>315060</v>
+      </c>
+      <c r="J3">
+        <v>163295</v>
+      </c>
+      <c r="K3">
+        <v>23350</v>
+      </c>
+      <c r="L3">
+        <v>59595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f>VLOOKUP(A4,Sidr!A:C,2,FALSE)</f>
+        <v>Noakhali</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>260</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>7400</v>
+      </c>
+      <c r="H4">
+        <v>14514</v>
+      </c>
+      <c r="I4">
+        <v>38000</v>
+      </c>
+      <c r="J4">
+        <v>76765</v>
+      </c>
+      <c r="K4">
+        <v>1655</v>
+      </c>
+      <c r="L4">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="str">
+        <f>VLOOKUP(A5,Sidr!A:C,2,FALSE)</f>
+        <v>Lakshmipur</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>62</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>1600</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f>VLOOKUP(A6,Sidr!A:C,2,FALSE)</f>
+        <v>Feni</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6">
+        <v>133</v>
+      </c>
+      <c r="J6">
+        <v>262547</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f>VLOOKUP(A7,Sidr!A:C,2,FALSE)</f>
+        <v>Chandpur</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>438</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>238</v>
+      </c>
+      <c r="H7">
+        <v>18380</v>
+      </c>
+      <c r="I7">
+        <v>1175</v>
+      </c>
+      <c r="J7">
+        <v>86875</v>
+      </c>
+      <c r="K7">
+        <v>235</v>
+      </c>
+      <c r="L7">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f>VLOOKUP(A8,Sidr!A:C,2,FALSE)</f>
+        <v>Barisal</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>6331</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>18315</v>
+      </c>
+      <c r="J8">
+        <v>73260</v>
+      </c>
+      <c r="L8">
+        <v>18315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f>VLOOKUP(A9,Sidr!A:C,2,FALSE)</f>
+        <v>Bhola</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>133</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2009</v>
+      </c>
+      <c r="H9">
+        <v>4457</v>
+      </c>
+      <c r="J9">
+        <v>25864</v>
+      </c>
+      <c r="K9">
+        <v>4409</v>
+      </c>
+      <c r="L9">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f>VLOOKUP(A10,Sidr!A:C,2,FALSE)</f>
+        <v>Patuakhali</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2000</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="str">
+        <f>VLOOKUP(A11,Sidr!A:C,2,FALSE)</f>
+        <v>Pirojpur</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>7000</v>
+      </c>
+      <c r="H11">
+        <v>520</v>
+      </c>
+      <c r="I11">
+        <v>28000</v>
+      </c>
+      <c r="J11">
+        <v>2080</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="str">
+        <f>VLOOKUP(A12,Sidr!A:C,2,FALSE)</f>
+        <v>Khulna</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1100</v>
+      </c>
+      <c r="K12">
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413E47C0-D118-4437-9E4A-DE4F997F730E}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="43.2">
+      <c r="A1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>VLOOKUP(A2,Sidr!A:C,2,FALSE)</f>
+        <v>Cox's Bazar</v>
+      </c>
+      <c r="C2">
+        <v>249412</v>
+      </c>
+      <c r="D2">
+        <v>1185675</v>
+      </c>
+      <c r="E2">
+        <v>25622</v>
+      </c>
+      <c r="F2">
+        <v>84500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f>VLOOKUP(A3,Sidr!A:C,2,FALSE)</f>
+        <v>Chittagong</v>
+      </c>
+      <c r="C3">
+        <v>28820</v>
+      </c>
+      <c r="D3">
+        <v>144100</v>
+      </c>
+      <c r="E3">
+        <v>520</v>
+      </c>
+      <c r="F3">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f>VLOOKUP(A4,Sidr!A:C,2,FALSE)</f>
+        <v>Noakhali</v>
+      </c>
+      <c r="C4">
+        <v>30000</v>
+      </c>
+      <c r="D4">
+        <v>150000</v>
+      </c>
+      <c r="E4">
+        <v>1685</v>
+      </c>
+      <c r="F4">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="str">
+        <f>VLOOKUP(A5,Sidr!A:C,2,FALSE)</f>
+        <v>Feni</v>
+      </c>
+      <c r="C5">
+        <v>21132</v>
+      </c>
+      <c r="D5">
+        <v>42000</v>
+      </c>
+      <c r="E5">
+        <v>1962</v>
+      </c>
+      <c r="F5">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>17025</v>
+      </c>
+      <c r="D6">
+        <v>63167</v>
+      </c>
+      <c r="E6">
+        <v>2755</v>
+      </c>
+      <c r="F6">
+        <v>5752</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F4B6D-1853-4BA4-B23C-510566FF409F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -5290,7 +5950,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="86.4">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5298,10 +5958,18 @@
     </row>
     <row r="2" spans="1:2" ht="100.8">
       <c r="A2" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="57.6">
+      <c r="A3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
